--- a/13_WBSガントチャート(0609更新).xlsx
+++ b/13_WBSガントチャート(0609更新).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7DE287-323F-4B1A-8972-CB468232696F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA92B12-A067-4D80-A368-3BED970C64A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,7 +679,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +752,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="60">
     <border>
@@ -1710,6 +1716,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,40 +1733,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1767,6 +1783,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1785,10 +1807,112 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,125 +1921,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2037,10 +2043,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFF99CC"/>
       <color rgb="FFFF66CC"/>
       <color rgb="FFFF6699"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99CCFF"/>
     </mruColors>
@@ -2523,7 +2529,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="U75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W90" sqref="W90"/>
+      <selection pane="bottomRight" activeCell="W88" sqref="W88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2543,144 +2549,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="123" t="s">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="123" t="s">
+      <c r="J1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="131" t="s">
+      <c r="K1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="71">
+      <c r="L1" s="72">
         <v>43984</v>
       </c>
-      <c r="M1" s="72"/>
-      <c r="N1" s="71">
+      <c r="M1" s="73"/>
+      <c r="N1" s="72">
         <v>43985</v>
       </c>
-      <c r="O1" s="72"/>
-      <c r="P1" s="71">
+      <c r="O1" s="73"/>
+      <c r="P1" s="72">
         <v>43986</v>
       </c>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="71">
+      <c r="Q1" s="73"/>
+      <c r="R1" s="72">
         <v>43987</v>
       </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="71">
+      <c r="S1" s="73"/>
+      <c r="T1" s="72">
         <v>43990</v>
       </c>
-      <c r="U1" s="72"/>
-      <c r="V1" s="71">
+      <c r="U1" s="73"/>
+      <c r="V1" s="72">
         <v>43991</v>
       </c>
-      <c r="W1" s="72"/>
+      <c r="W1" s="73"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="126" t="s">
+      <c r="A2" s="122"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="74"/>
-      <c r="N2" s="73" t="s">
+      <c r="M2" s="75"/>
+      <c r="N2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="73"/>
-      <c r="P2" s="127" t="s">
+      <c r="O2" s="74"/>
+      <c r="P2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="75"/>
+      <c r="R2" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="73" t="s">
+      <c r="S2" s="75"/>
+      <c r="T2" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="74"/>
-      <c r="V2" s="73" t="s">
+      <c r="U2" s="75"/>
+      <c r="V2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="130" t="s">
+      <c r="A3" s="122"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="129"/>
-      <c r="N3" s="128" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="128" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="75" t="s">
+      <c r="Q3" s="106"/>
+      <c r="R3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75" t="s">
+      <c r="U3" s="76"/>
+      <c r="V3" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="75"/>
+      <c r="W3" s="76"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="133"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2719,15 +2725,15 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="110"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="134"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="114"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2785,13 +2791,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="135"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="115"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2847,15 +2853,15 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="117" t="s">
+      <c r="A7" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2902,13 +2908,13 @@
       <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="121"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2956,21 +2962,21 @@
       <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78">
+      <c r="A9" s="89">
         <v>1</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="86" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="88"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2992,13 +2998,13 @@
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="89"/>
+      <c r="A10" s="90"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -3020,21 +3026,21 @@
       <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="102" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="100" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3065,13 +3071,13 @@
       <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="79"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="77"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="80"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3102,21 +3108,21 @@
       <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="102" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="100" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="76"/>
+      <c r="G13" s="79"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3146,13 +3152,13 @@
       <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="79"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="77"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3183,19 +3189,19 @@
       <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78">
+      <c r="A15" s="89">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="86" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="88"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -3217,13 +3223,13 @@
       <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="79"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="89"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -3245,21 +3251,21 @@
       <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
-      <c r="B17" s="102" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="100" t="s">
+      <c r="D17" s="85"/>
+      <c r="E17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="76"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3289,13 +3295,13 @@
       <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="79"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="77"/>
+      <c r="A18" s="90"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3326,21 +3332,21 @@
       <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="102" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="100" t="s">
+      <c r="D19" s="85"/>
+      <c r="E19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3370,13 +3376,13 @@
       <c r="W19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="79"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="77"/>
+      <c r="A20" s="90"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3407,21 +3413,21 @@
       <c r="W20" s="63"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="102" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="80" t="s">
+      <c r="C21" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="100" t="s">
+      <c r="D21" s="85"/>
+      <c r="E21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="76"/>
+      <c r="G21" s="79"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3451,13 +3457,13 @@
       <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="79"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="77"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3488,15 +3494,15 @@
       <c r="W22" s="63"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="98"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="138"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3544,13 +3550,13 @@
       <c r="W23" s="65"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="99"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="139"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3598,19 +3604,19 @@
       <c r="W24" s="66"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="78">
+      <c r="A25" s="89">
         <v>1</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="86" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="88"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3632,13 +3638,13 @@
       <c r="W25" s="64"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="79"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="89"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3660,21 +3666,21 @@
       <c r="W26" s="63"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="100" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="76"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3705,13 +3711,13 @@
       <c r="W27" s="64"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="79"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="77"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3742,21 +3748,21 @@
       <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
-      <c r="B29" s="102" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="80" t="s">
+      <c r="C29" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="100" t="s">
+      <c r="D29" s="85"/>
+      <c r="E29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="100" t="s">
+      <c r="F29" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="76"/>
+      <c r="G29" s="79"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3787,13 +3793,13 @@
       <c r="W29" s="64"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="79"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="77"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3824,19 +3830,19 @@
       <c r="W30" s="63"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="102" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="80" t="s">
+      <c r="C31" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="100" t="s">
+      <c r="D31" s="85"/>
+      <c r="E31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="76"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="79"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3867,13 +3873,13 @@
       <c r="W31" s="64"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="79"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="77"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3904,19 +3910,19 @@
       <c r="W32" s="63"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78">
+      <c r="A33" s="89">
         <v>2</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="86" t="s">
+      <c r="C33" s="84"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="88"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3938,13 +3944,13 @@
       <c r="W33" s="64"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="79"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="89"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="93"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3966,19 +3972,19 @@
       <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="102" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="80" t="s">
+      <c r="C35" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="82"/>
-      <c r="E35" s="100" t="s">
+      <c r="D35" s="85"/>
+      <c r="E35" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="100"/>
-      <c r="G35" s="76"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="79"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -4009,13 +4015,13 @@
       <c r="W35" s="64"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="79"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="77"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -4046,19 +4052,19 @@
       <c r="W36" s="63"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
-      <c r="B37" s="102" t="s">
+      <c r="A37" s="89"/>
+      <c r="B37" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="100" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="76"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="79"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4089,13 +4095,13 @@
       <c r="W37" s="64"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="79"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="77"/>
+      <c r="A38" s="90"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4126,19 +4132,19 @@
       <c r="W38" s="63"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="102" t="s">
+      <c r="A39" s="89"/>
+      <c r="B39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="82"/>
-      <c r="E39" s="100" t="s">
+      <c r="D39" s="85"/>
+      <c r="E39" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="76"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="79"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4169,13 +4175,13 @@
       <c r="W39" s="64"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="79"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="77"/>
+      <c r="A40" s="90"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4205,15 +4211,15 @@
       <c r="W40" s="63"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="98"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="138"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -4261,13 +4267,13 @@
       <c r="W41" s="65"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="99"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="139"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -4315,19 +4321,19 @@
       <c r="W42" s="66"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="78">
+      <c r="A43" s="89">
         <v>1</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="86" t="s">
+      <c r="C43" s="84"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="88"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -4349,13 +4355,13 @@
       <c r="W43" s="64"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="79"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="89"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="93"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -4377,19 +4383,19 @@
       <c r="W44" s="63"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="78"/>
-      <c r="B45" s="102" t="s">
+      <c r="A45" s="89"/>
+      <c r="B45" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="82"/>
-      <c r="E45" s="100" t="s">
+      <c r="D45" s="85"/>
+      <c r="E45" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="76"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="79"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4422,13 +4428,13 @@
       <c r="W45" s="64"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="79"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="77"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4460,19 +4466,19 @@
       <c r="W46" s="63"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="78"/>
-      <c r="B47" s="102" t="s">
+      <c r="A47" s="89"/>
+      <c r="B47" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="80" t="s">
+      <c r="C47" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="82"/>
-      <c r="E47" s="100" t="s">
+      <c r="D47" s="85"/>
+      <c r="E47" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="76"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="79"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4503,13 +4509,13 @@
       <c r="W47" s="64"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="79"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="77"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4540,19 +4546,19 @@
       <c r="W48" s="63"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="78">
+      <c r="A49" s="89">
         <v>2</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="86" t="s">
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="86"/>
-      <c r="G49" s="88"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4574,13 +4580,13 @@
       <c r="W49" s="64"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="79"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="89"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="93"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4602,19 +4608,19 @@
       <c r="W50" s="63"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="78"/>
-      <c r="B51" s="102" t="s">
+      <c r="A51" s="89"/>
+      <c r="B51" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="80" t="s">
+      <c r="C51" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="82"/>
-      <c r="E51" s="100" t="s">
+      <c r="D51" s="85"/>
+      <c r="E51" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="100"/>
-      <c r="G51" s="76"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="79"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4645,13 +4651,13 @@
       <c r="W51" s="64"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="79"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
-      <c r="G52" s="77"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="88"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="80"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4681,19 +4687,19 @@
       <c r="W52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="78"/>
-      <c r="B53" s="102" t="s">
+      <c r="A53" s="89"/>
+      <c r="B53" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C53" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="82"/>
-      <c r="E53" s="100" t="s">
+      <c r="D53" s="85"/>
+      <c r="E53" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="100"/>
-      <c r="G53" s="76"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="79"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4724,13 +4730,13 @@
       <c r="W53" s="64"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="79"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="77"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="88"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4761,19 +4767,19 @@
       <c r="W54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="78"/>
-      <c r="B55" s="102" t="s">
+      <c r="A55" s="89"/>
+      <c r="B55" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="82"/>
-      <c r="E55" s="100" t="s">
+      <c r="D55" s="85"/>
+      <c r="E55" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="100"/>
-      <c r="G55" s="76"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="79"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4804,13 +4810,13 @@
       <c r="W55" s="64"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="79"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="77"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="88"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4841,15 +4847,15 @@
       <c r="W56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="90" t="s">
+      <c r="A57" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="98"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="138"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4900,13 +4906,13 @@
       <c r="W57" s="65"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="99"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="139"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4966,19 +4972,19 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="78">
+      <c r="A59" s="89">
         <v>1</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="86" t="s">
+      <c r="C59" s="84"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="88"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5000,13 +5006,13 @@
       <c r="W59" s="64"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="79"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="89"/>
+      <c r="A60" s="90"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="93"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -5028,19 +5034,19 @@
       <c r="W60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="78"/>
-      <c r="B61" s="102" t="s">
+      <c r="A61" s="89"/>
+      <c r="B61" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="80" t="s">
+      <c r="C61" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="82"/>
-      <c r="E61" s="100" t="s">
+      <c r="D61" s="85"/>
+      <c r="E61" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="100"/>
-      <c r="G61" s="76"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="79"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -5072,13 +5078,13 @@
       <c r="W61" s="64"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="79"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="77"/>
+      <c r="A62" s="90"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="80"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -5110,19 +5116,19 @@
       <c r="W62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="78"/>
-      <c r="B63" s="102" t="s">
+      <c r="A63" s="89"/>
+      <c r="B63" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="100" t="s">
+      <c r="D63" s="85"/>
+      <c r="E63" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="100"/>
-      <c r="G63" s="76"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="79"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -5153,13 +5159,13 @@
       <c r="W63" s="64"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="79"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="77"/>
+      <c r="A64" s="90"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="80"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -5191,19 +5197,19 @@
       <c r="W64" s="63"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="78"/>
-      <c r="B65" s="102" t="s">
+      <c r="A65" s="89"/>
+      <c r="B65" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="80" t="s">
+      <c r="C65" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="100" t="s">
+      <c r="D65" s="85"/>
+      <c r="E65" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="100"/>
-      <c r="G65" s="76"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="79"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5234,13 +5240,13 @@
       <c r="W65" s="64"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="79"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="101"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="77"/>
+      <c r="A66" s="90"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="80"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5275,19 +5281,19 @@
       <c r="W66" s="63"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="78">
+      <c r="A67" s="89">
         <v>2</v>
       </c>
-      <c r="B67" s="80" t="s">
+      <c r="B67" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="86" t="s">
+      <c r="C67" s="84"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="88"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="92"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5309,13 +5315,13 @@
       <c r="W67" s="64"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="79"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="89"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="93"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5337,19 +5343,19 @@
       <c r="W68" s="63"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="78"/>
-      <c r="B69" s="102" t="s">
+      <c r="A69" s="89"/>
+      <c r="B69" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="80" t="s">
+      <c r="C69" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="82"/>
-      <c r="E69" s="100" t="s">
+      <c r="D69" s="85"/>
+      <c r="E69" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="100"/>
-      <c r="G69" s="76"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="79"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5380,13 +5386,13 @@
       <c r="W69" s="64"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="79"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="101"/>
-      <c r="F70" s="101"/>
-      <c r="G70" s="77"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="88"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="80"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5424,19 +5430,19 @@
       <c r="W70" s="63"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="78"/>
-      <c r="B71" s="102" t="s">
+      <c r="A71" s="89"/>
+      <c r="B71" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="80" t="s">
+      <c r="C71" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="82"/>
-      <c r="E71" s="100" t="s">
+      <c r="D71" s="85"/>
+      <c r="E71" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="100"/>
-      <c r="G71" s="76"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="79"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -5467,13 +5473,13 @@
       <c r="W71" s="64"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="79"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="101"/>
-      <c r="F72" s="101"/>
-      <c r="G72" s="77"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="80"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -5511,19 +5517,19 @@
       <c r="W72" s="63"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="78"/>
-      <c r="B73" s="102" t="s">
+      <c r="A73" s="89"/>
+      <c r="B73" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="80" t="s">
+      <c r="C73" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="82"/>
-      <c r="E73" s="100" t="s">
+      <c r="D73" s="85"/>
+      <c r="E73" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="100"/>
-      <c r="G73" s="76"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="79"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5554,13 +5560,13 @@
       <c r="W73" s="64"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="79"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="101"/>
-      <c r="F74" s="101"/>
-      <c r="G74" s="77"/>
+      <c r="A74" s="90"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="80"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5596,15 +5602,15 @@
       <c r="W74" s="63"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="90" t="s">
+      <c r="A75" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="96"/>
-      <c r="F75" s="96"/>
-      <c r="G75" s="98"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="138"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5651,13 +5657,13 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="99"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
+      <c r="G76" s="139"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5717,17 +5723,17 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="78">
+      <c r="A77" s="89">
         <v>1</v>
       </c>
-      <c r="B77" s="80" t="s">
+      <c r="B77" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="88"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5749,13 +5755,13 @@
       <c r="W77" s="64"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="79"/>
-      <c r="B78" s="83"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="89"/>
+      <c r="A78" s="90"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="87"/>
+      <c r="D78" s="88"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="93"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5777,19 +5783,19 @@
       <c r="W78" s="63"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="78"/>
-      <c r="B79" s="102" t="s">
+      <c r="A79" s="89"/>
+      <c r="B79" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="80" t="s">
+      <c r="C79" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="82"/>
-      <c r="E79" s="100" t="s">
+      <c r="D79" s="85"/>
+      <c r="E79" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="100"/>
-      <c r="G79" s="76"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="79"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5820,13 +5826,13 @@
       <c r="W79" s="64"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="79"/>
-      <c r="B80" s="77"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="101"/>
-      <c r="G80" s="77"/>
+      <c r="A80" s="90"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="88"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="80"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5863,19 +5869,19 @@
       <c r="W80" s="63"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="78"/>
-      <c r="B81" s="102" t="s">
+      <c r="A81" s="89"/>
+      <c r="B81" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="80" t="s">
+      <c r="C81" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="82"/>
-      <c r="E81" s="100" t="s">
+      <c r="D81" s="85"/>
+      <c r="E81" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="100"/>
-      <c r="G81" s="76"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="79"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5906,13 +5912,13 @@
       <c r="W81" s="64"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="79"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="77"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="88"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="80"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5946,15 +5952,15 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="90" t="s">
+      <c r="A83" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="91"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="96"/>
-      <c r="F83" s="96"/>
-      <c r="G83" s="98"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="138"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -6000,13 +6006,13 @@
       <c r="W83" s="65"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="93"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94"/>
-      <c r="D84" s="95"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="99"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="100"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="95"/>
+      <c r="F84" s="95"/>
+      <c r="G84" s="139"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -6054,17 +6060,17 @@
       <c r="W84" s="66"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="78">
+      <c r="A85" s="89">
         <v>1</v>
       </c>
-      <c r="B85" s="80" t="s">
+      <c r="B85" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="86"/>
-      <c r="G85" s="88"/>
+      <c r="C85" s="84"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="92"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -6086,13 +6092,13 @@
       <c r="W85" s="64"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="79"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="87"/>
-      <c r="G86" s="89"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="88"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="93"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -6114,19 +6120,19 @@
       <c r="W86" s="63"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="78"/>
-      <c r="B87" s="102" t="s">
+      <c r="A87" s="89"/>
+      <c r="B87" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="82"/>
-      <c r="E87" s="100" t="s">
+      <c r="D87" s="85"/>
+      <c r="E87" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="100"/>
-      <c r="G87" s="76"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="79"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -6157,13 +6163,13 @@
       <c r="W87" s="64"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="79"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="101"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="77"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="88"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="80"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -6185,25 +6191,25 @@
       <c r="T88" s="63"/>
       <c r="U88" s="63"/>
       <c r="V88" s="63"/>
-      <c r="W88" s="139">
+      <c r="W88" s="140">
         <f>1.5*6</f>
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="78"/>
-      <c r="B89" s="102" t="s">
+      <c r="A89" s="89"/>
+      <c r="B89" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="138" t="s">
+      <c r="C89" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="82"/>
-      <c r="E89" s="100" t="s">
+      <c r="D89" s="85"/>
+      <c r="E89" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="100"/>
-      <c r="G89" s="76"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="79"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -6231,16 +6237,16 @@
       <c r="T89" s="64"/>
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>
-      <c r="W89" s="140"/>
+      <c r="W89" s="71"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="79"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="101"/>
-      <c r="F90" s="101"/>
-      <c r="G90" s="77"/>
+      <c r="A90" s="90"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="88"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -6265,17 +6271,17 @@
       <c r="W90" s="63"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="78">
+      <c r="A91" s="89">
         <v>2</v>
       </c>
-      <c r="B91" s="80" t="s">
+      <c r="B91" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="81"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="88"/>
+      <c r="C91" s="84"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="92"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6299,13 +6305,13 @@
       <c r="W91" s="64"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="79"/>
-      <c r="B92" s="83"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-      <c r="G92" s="89"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="93"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6327,19 +6333,19 @@
       <c r="W92" s="63"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="78"/>
-      <c r="B93" s="102" t="s">
+      <c r="A93" s="89"/>
+      <c r="B93" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="80" t="s">
+      <c r="C93" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="100" t="s">
+      <c r="D93" s="85"/>
+      <c r="E93" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="100"/>
-      <c r="G93" s="76"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="79"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6370,13 +6376,13 @@
       <c r="W93" s="64"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="79"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="101"/>
-      <c r="F94" s="101"/>
-      <c r="G94" s="77"/>
+      <c r="A94" s="90"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="88"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="80"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6401,19 +6407,19 @@
       <c r="W94" s="63"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="78"/>
-      <c r="B95" s="102" t="s">
+      <c r="A95" s="89"/>
+      <c r="B95" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="80" t="s">
+      <c r="C95" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="82"/>
-      <c r="E95" s="100" t="s">
+      <c r="D95" s="85"/>
+      <c r="E95" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="100"/>
-      <c r="G95" s="76"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="79"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -6444,13 +6450,13 @@
       <c r="W95" s="64"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="79"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="101"/>
-      <c r="G96" s="77"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="88"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="80"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -6475,15 +6481,15 @@
       <c r="W96" s="63"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="90" t="s">
+      <c r="A97" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="91"/>
-      <c r="C97" s="91"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="96"/>
-      <c r="F97" s="96"/>
-      <c r="G97" s="98"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94"/>
+      <c r="G97" s="138"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -6530,13 +6536,13 @@
       <c r="W97" s="65"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="93"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="94"/>
-      <c r="D98" s="95"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="99"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="101"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
+      <c r="G98" s="139"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -6584,19 +6590,19 @@
       <c r="W98" s="66"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="78">
+      <c r="A99" s="89">
         <v>1</v>
       </c>
-      <c r="B99" s="80" t="s">
+      <c r="B99" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="81"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="86" t="s">
+      <c r="C99" s="84"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="86"/>
-      <c r="G99" s="88"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="92"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6618,13 +6624,13 @@
       <c r="W99" s="64"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="79"/>
-      <c r="B100" s="83"/>
-      <c r="C100" s="84"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="87"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="89"/>
+      <c r="A100" s="90"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="88"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="93"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6646,19 +6652,19 @@
       <c r="W100" s="63"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="78"/>
-      <c r="B101" s="102" t="s">
+      <c r="A101" s="89"/>
+      <c r="B101" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="80" t="s">
+      <c r="C101" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="82"/>
-      <c r="E101" s="100" t="s">
+      <c r="D101" s="85"/>
+      <c r="E101" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="100"/>
-      <c r="G101" s="76"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="79"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6688,13 +6694,13 @@
       <c r="W101" s="64"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="79"/>
-      <c r="B102" s="77"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="101"/>
-      <c r="F102" s="101"/>
-      <c r="G102" s="77"/>
+      <c r="A102" s="90"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="88"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="80"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6719,19 +6725,19 @@
       <c r="W102" s="63"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="78"/>
-      <c r="B103" s="102" t="s">
+      <c r="A103" s="89"/>
+      <c r="B103" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="80" t="s">
+      <c r="C103" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="82"/>
-      <c r="E103" s="100" t="s">
+      <c r="D103" s="85"/>
+      <c r="E103" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="100"/>
-      <c r="G103" s="76"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="79"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6761,13 +6767,13 @@
       <c r="W103" s="64"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="79"/>
-      <c r="B104" s="77"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="101"/>
-      <c r="G104" s="77"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="88"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="80"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6792,19 +6798,19 @@
       <c r="W104" s="63"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="78">
+      <c r="A105" s="89">
         <v>2</v>
       </c>
-      <c r="B105" s="80" t="s">
+      <c r="B105" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="86" t="s">
+      <c r="C105" s="84"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="86"/>
-      <c r="G105" s="88"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="92"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6826,13 +6832,13 @@
       <c r="W105" s="64"/>
     </row>
     <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="79"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="89"/>
+      <c r="A106" s="90"/>
+      <c r="B106" s="86"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="88"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="93"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6854,19 +6860,19 @@
       <c r="W106" s="63"/>
     </row>
     <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="78"/>
-      <c r="B107" s="102" t="s">
+      <c r="A107" s="89"/>
+      <c r="B107" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="80" t="s">
+      <c r="C107" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="82"/>
-      <c r="E107" s="100" t="s">
+      <c r="D107" s="85"/>
+      <c r="E107" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="100"/>
-      <c r="G107" s="76"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="79"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6896,13 +6902,13 @@
       <c r="W107" s="64"/>
     </row>
     <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="79"/>
-      <c r="B108" s="77"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="G108" s="77"/>
+      <c r="A108" s="90"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="88"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="80"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6927,19 +6933,19 @@
       <c r="W108" s="63"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="78"/>
-      <c r="B109" s="102" t="s">
+      <c r="A109" s="89"/>
+      <c r="B109" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="80" t="s">
+      <c r="C109" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="82"/>
-      <c r="E109" s="100" t="s">
+      <c r="D109" s="85"/>
+      <c r="E109" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="100"/>
-      <c r="G109" s="76"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="79"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6969,13 +6975,13 @@
       <c r="W109" s="64"/>
     </row>
     <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="79"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="77"/>
+      <c r="A110" s="90"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="80"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -7015,6 +7021,297 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="V3:W3"/>
@@ -7039,297 +7336,6 @@
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34 L77:S79 L81:S82 L80:T80">
@@ -7603,18 +7609,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7636,18 +7642,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(0609更新).xlsx
+++ b/13_WBSガントチャート(0609更新).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA92B12-A067-4D80-A368-3BED970C64A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361989C0-4CE9-4340-B7B9-C92E863730ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1717,6 +1717,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1732,16 +1766,10 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1750,178 +1778,150 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2526,10 +2526,10 @@
   <dimension ref="A1:W111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="U75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="R131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W88" sqref="W88"/>
+      <selection pane="bottomRight" activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2549,144 +2549,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="116" t="s">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="72">
+      <c r="L1" s="84">
         <v>43984</v>
       </c>
-      <c r="M1" s="73"/>
-      <c r="N1" s="72">
+      <c r="M1" s="85"/>
+      <c r="N1" s="84">
         <v>43985</v>
       </c>
-      <c r="O1" s="73"/>
-      <c r="P1" s="72">
+      <c r="O1" s="85"/>
+      <c r="P1" s="84">
         <v>43986</v>
       </c>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="72">
+      <c r="Q1" s="85"/>
+      <c r="R1" s="84">
         <v>43987</v>
       </c>
-      <c r="S1" s="73"/>
-      <c r="T1" s="72">
+      <c r="S1" s="85"/>
+      <c r="T1" s="84">
         <v>43990</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="72">
+      <c r="U1" s="85"/>
+      <c r="V1" s="84">
         <v>43991</v>
       </c>
-      <c r="W1" s="73"/>
+      <c r="W1" s="85"/>
     </row>
     <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="103" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="75"/>
-      <c r="N2" s="74" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="74"/>
-      <c r="P2" s="104" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="74" t="s">
+      <c r="Q2" s="87"/>
+      <c r="R2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="75"/>
-      <c r="T2" s="74" t="s">
+      <c r="S2" s="87"/>
+      <c r="T2" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="75"/>
-      <c r="V2" s="74" t="s">
+      <c r="U2" s="87"/>
+      <c r="V2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="75"/>
+      <c r="W2" s="87"/>
     </row>
     <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="122"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="107" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="105" t="s">
+      <c r="M3" s="133"/>
+      <c r="N3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="105" t="s">
+      <c r="O3" s="133"/>
+      <c r="P3" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="133"/>
+      <c r="R3" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76" t="s">
+      <c r="S3" s="88"/>
+      <c r="T3" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76" t="s">
+      <c r="U3" s="88"/>
+      <c r="V3" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="76"/>
+      <c r="W3" s="88"/>
     </row>
     <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="110"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="137"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2725,15 +2725,15 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2791,13 +2791,13 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="115"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="139"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2853,15 +2853,15 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="135"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="122"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2908,13 +2908,13 @@
       <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="136"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="123"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2962,21 +2962,21 @@
       <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89">
+      <c r="A9" s="73">
         <v>1</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="81" t="s">
+      <c r="C9" s="89"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="92"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2998,13 +2998,13 @@
       <c r="W9" s="64"/>
     </row>
     <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="93"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="94"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -3026,21 +3026,21 @@
       <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="77" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="79"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3071,13 +3071,13 @@
       <c r="W11" s="64"/>
     </row>
     <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3108,21 +3108,21 @@
       <c r="W12" s="63"/>
     </row>
     <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="89"/>
-      <c r="B13" s="91" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="77" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="79"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3152,13 +3152,13 @@
       <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3189,19 +3189,19 @@
       <c r="W14" s="63"/>
     </row>
     <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="89">
+      <c r="A15" s="73">
         <v>2</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="81" t="s">
+      <c r="C15" s="89"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="92"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="93"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -3223,13 +3223,13 @@
       <c r="W15" s="64"/>
     </row>
     <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="93"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -3251,21 +3251,21 @@
       <c r="W16" s="63"/>
     </row>
     <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="73"/>
+      <c r="B17" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="77" t="s">
+      <c r="D17" s="78"/>
+      <c r="E17" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3295,13 +3295,13 @@
       <c r="W17" s="64"/>
     </row>
     <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="90"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="80"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3332,21 +3332,21 @@
       <c r="W18" s="63"/>
     </row>
     <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="77" t="s">
+      <c r="D19" s="78"/>
+      <c r="E19" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="79"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3376,13 +3376,13 @@
       <c r="W19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="90"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="80"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3413,21 +3413,21 @@
       <c r="W20" s="63"/>
     </row>
     <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="89"/>
-      <c r="B21" s="91" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="77" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="79"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3457,13 +3457,13 @@
       <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="90"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="80"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3494,15 +3494,15 @@
       <c r="W22" s="63"/>
     </row>
     <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="138"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="103"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3550,13 +3550,13 @@
       <c r="W23" s="65"/>
     </row>
     <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="139"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="104"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3604,19 +3604,19 @@
       <c r="W24" s="66"/>
     </row>
     <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89">
+      <c r="A25" s="73">
         <v>1</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="81" t="s">
+      <c r="C25" s="89"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="92"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3638,13 +3638,13 @@
       <c r="W25" s="64"/>
     </row>
     <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="90"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="93"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="94"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3666,21 +3666,21 @@
       <c r="W26" s="63"/>
     </row>
     <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="73"/>
+      <c r="B27" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="85"/>
-      <c r="E27" s="77" t="s">
+      <c r="D27" s="78"/>
+      <c r="E27" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="F27" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="79"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3711,13 +3711,13 @@
       <c r="W27" s="64"/>
     </row>
     <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="90"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="80"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="76"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3748,21 +3748,21 @@
       <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
-      <c r="B29" s="91" t="s">
+      <c r="A29" s="73"/>
+      <c r="B29" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="77" t="s">
+      <c r="D29" s="78"/>
+      <c r="E29" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="77" t="s">
+      <c r="F29" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="79"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3793,13 +3793,13 @@
       <c r="W29" s="64"/>
     </row>
     <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="90"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="80"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="76"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3830,19 +3830,19 @@
       <c r="W30" s="63"/>
     </row>
     <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="89"/>
-      <c r="B31" s="91" t="s">
+      <c r="A31" s="73"/>
+      <c r="B31" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="77" t="s">
+      <c r="D31" s="78"/>
+      <c r="E31" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="79"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3873,13 +3873,13 @@
       <c r="W31" s="64"/>
     </row>
     <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="90"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="80"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="76"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3910,19 +3910,19 @@
       <c r="W32" s="63"/>
     </row>
     <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="89">
+      <c r="A33" s="73">
         <v>2</v>
       </c>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="81" t="s">
+      <c r="C33" s="89"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="81"/>
-      <c r="G33" s="92"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3944,13 +3944,13 @@
       <c r="W33" s="64"/>
     </row>
     <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="90"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="93"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3972,19 +3972,19 @@
       <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="89"/>
-      <c r="B35" s="91" t="s">
+      <c r="A35" s="73"/>
+      <c r="B35" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="85"/>
-      <c r="E35" s="77" t="s">
+      <c r="D35" s="78"/>
+      <c r="E35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="79"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -4015,13 +4015,13 @@
       <c r="W35" s="64"/>
     </row>
     <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="90"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="80"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="76"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -4052,19 +4052,19 @@
       <c r="W36" s="63"/>
     </row>
     <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="89"/>
-      <c r="B37" s="91" t="s">
+      <c r="A37" s="73"/>
+      <c r="B37" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="77" t="s">
+      <c r="D37" s="78"/>
+      <c r="E37" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="79"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4095,13 +4095,13 @@
       <c r="W37" s="64"/>
     </row>
     <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="90"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="80"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="76"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4132,19 +4132,19 @@
       <c r="W38" s="63"/>
     </row>
     <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="89"/>
-      <c r="B39" s="91" t="s">
+      <c r="A39" s="73"/>
+      <c r="B39" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="77" t="s">
+      <c r="D39" s="78"/>
+      <c r="E39" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="77"/>
-      <c r="G39" s="79"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="83"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4175,13 +4175,13 @@
       <c r="W39" s="64"/>
     </row>
     <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="90"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="80"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="76"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4211,15 +4211,15 @@
       <c r="W40" s="63"/>
     </row>
     <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-      <c r="G41" s="138"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="103"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -4267,13 +4267,13 @@
       <c r="W41" s="65"/>
     </row>
     <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="99"/>
-      <c r="B42" s="100"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="139"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="104"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -4321,19 +4321,19 @@
       <c r="W42" s="66"/>
     </row>
     <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="89">
+      <c r="A43" s="73">
         <v>1</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="81" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="81"/>
-      <c r="G43" s="92"/>
+      <c r="F43" s="91"/>
+      <c r="G43" s="93"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -4355,13 +4355,13 @@
       <c r="W43" s="64"/>
     </row>
     <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="90"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="93"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="94"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -4383,19 +4383,19 @@
       <c r="W44" s="63"/>
     </row>
     <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="89"/>
-      <c r="B45" s="91" t="s">
+      <c r="A45" s="73"/>
+      <c r="B45" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="77" t="s">
+      <c r="D45" s="78"/>
+      <c r="E45" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="79"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="83"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4428,13 +4428,13 @@
       <c r="W45" s="64"/>
     </row>
     <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="90"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="80"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4466,19 +4466,19 @@
       <c r="W46" s="63"/>
     </row>
     <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="89"/>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="73"/>
+      <c r="B47" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="77" t="s">
+      <c r="D47" s="78"/>
+      <c r="E47" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="79"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="83"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4509,13 +4509,13 @@
       <c r="W47" s="64"/>
     </row>
     <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="90"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="80"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="76"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4546,19 +4546,19 @@
       <c r="W48" s="63"/>
     </row>
     <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="89">
+      <c r="A49" s="73">
         <v>2</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="84"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="81" t="s">
+      <c r="C49" s="89"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="81"/>
-      <c r="G49" s="92"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="93"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4580,13 +4580,13 @@
       <c r="W49" s="64"/>
     </row>
     <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="90"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="93"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="94"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4608,19 +4608,19 @@
       <c r="W50" s="63"/>
     </row>
     <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="89"/>
-      <c r="B51" s="91" t="s">
+      <c r="A51" s="73"/>
+      <c r="B51" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="85"/>
-      <c r="E51" s="77" t="s">
+      <c r="D51" s="78"/>
+      <c r="E51" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="77"/>
-      <c r="G51" s="79"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4651,13 +4651,13 @@
       <c r="W51" s="64"/>
     </row>
     <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="90"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="80"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="76"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="76"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4687,19 +4687,19 @@
       <c r="W52" s="63"/>
     </row>
     <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="89"/>
-      <c r="B53" s="91" t="s">
+      <c r="A53" s="73"/>
+      <c r="B53" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="85"/>
-      <c r="E53" s="77" t="s">
+      <c r="D53" s="78"/>
+      <c r="E53" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="77"/>
-      <c r="G53" s="79"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4730,13 +4730,13 @@
       <c r="W53" s="64"/>
     </row>
     <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="90"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="80"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="76"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="76"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4767,19 +4767,19 @@
       <c r="W54" s="63"/>
     </row>
     <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="89"/>
-      <c r="B55" s="91" t="s">
+      <c r="A55" s="73"/>
+      <c r="B55" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="85"/>
-      <c r="E55" s="77" t="s">
+      <c r="D55" s="78"/>
+      <c r="E55" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="77"/>
-      <c r="G55" s="79"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4810,13 +4810,13 @@
       <c r="W55" s="64"/>
     </row>
     <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="90"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="80"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="76"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4847,15 +4847,15 @@
       <c r="W56" s="63"/>
     </row>
     <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="96" t="s">
+      <c r="A57" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="138"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
+      <c r="G57" s="103"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4906,13 +4906,13 @@
       <c r="W57" s="65"/>
     </row>
     <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="139"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
+      <c r="G58" s="104"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4972,19 +4972,19 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="89">
+      <c r="A59" s="73">
         <v>1</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="84"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="81" t="s">
+      <c r="C59" s="89"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="81"/>
-      <c r="G59" s="92"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="93"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -5006,13 +5006,13 @@
       <c r="W59" s="64"/>
     </row>
     <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="90"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
-      <c r="G60" s="93"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="94"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -5034,19 +5034,19 @@
       <c r="W60" s="63"/>
     </row>
     <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="89"/>
-      <c r="B61" s="91" t="s">
+      <c r="A61" s="73"/>
+      <c r="B61" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="83" t="s">
+      <c r="C61" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="77" t="s">
+      <c r="D61" s="78"/>
+      <c r="E61" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="77"/>
-      <c r="G61" s="79"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -5078,13 +5078,13 @@
       <c r="W61" s="64"/>
     </row>
     <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="90"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="80"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="76"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -5116,19 +5116,19 @@
       <c r="W62" s="63"/>
     </row>
     <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="89"/>
-      <c r="B63" s="91" t="s">
+      <c r="A63" s="73"/>
+      <c r="B63" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="85"/>
-      <c r="E63" s="77" t="s">
+      <c r="D63" s="78"/>
+      <c r="E63" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="77"/>
-      <c r="G63" s="79"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -5159,13 +5159,13 @@
       <c r="W63" s="64"/>
     </row>
     <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="90"/>
-      <c r="B64" s="80"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="80"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="76"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -5197,19 +5197,19 @@
       <c r="W64" s="63"/>
     </row>
     <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="89"/>
-      <c r="B65" s="91" t="s">
+      <c r="A65" s="73"/>
+      <c r="B65" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="85"/>
-      <c r="E65" s="77" t="s">
+      <c r="D65" s="78"/>
+      <c r="E65" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="79"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5240,13 +5240,13 @@
       <c r="W65" s="64"/>
     </row>
     <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="90"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="80"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="76"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="76"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5281,19 +5281,19 @@
       <c r="W66" s="63"/>
     </row>
     <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="89">
+      <c r="A67" s="73">
         <v>2</v>
       </c>
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="84"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="81" t="s">
+      <c r="C67" s="89"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="81"/>
-      <c r="G67" s="92"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="93"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -5315,13 +5315,13 @@
       <c r="W67" s="64"/>
     </row>
     <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="90"/>
-      <c r="B68" s="86"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="93"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="79"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="94"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -5343,19 +5343,19 @@
       <c r="W68" s="63"/>
     </row>
     <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="89"/>
-      <c r="B69" s="91" t="s">
+      <c r="A69" s="73"/>
+      <c r="B69" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="85"/>
-      <c r="E69" s="77" t="s">
+      <c r="D69" s="78"/>
+      <c r="E69" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="79"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5386,13 +5386,13 @@
       <c r="W69" s="64"/>
     </row>
     <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="90"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="86"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="80"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="76"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5430,19 +5430,19 @@
       <c r="W70" s="63"/>
     </row>
     <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="89"/>
-      <c r="B71" s="91" t="s">
+      <c r="A71" s="73"/>
+      <c r="B71" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="85"/>
-      <c r="E71" s="77" t="s">
+      <c r="D71" s="78"/>
+      <c r="E71" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="77"/>
-      <c r="G71" s="79"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="83"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -5473,13 +5473,13 @@
       <c r="W71" s="64"/>
     </row>
     <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="90"/>
-      <c r="B72" s="80"/>
-      <c r="C72" s="86"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="80"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="76"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="76"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -5517,19 +5517,19 @@
       <c r="W72" s="63"/>
     </row>
     <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="89"/>
-      <c r="B73" s="91" t="s">
+      <c r="A73" s="73"/>
+      <c r="B73" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="85"/>
-      <c r="E73" s="77" t="s">
+      <c r="D73" s="78"/>
+      <c r="E73" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="77"/>
-      <c r="G73" s="79"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="83"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5560,13 +5560,13 @@
       <c r="W73" s="64"/>
     </row>
     <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="90"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="80"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="76"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="76"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5602,15 +5602,15 @@
       <c r="W74" s="63"/>
     </row>
     <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="96" t="s">
+      <c r="A75" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="98"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="138"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="103"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5657,13 +5657,13 @@
       </c>
     </row>
     <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="99"/>
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="139"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="104"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5723,17 +5723,17 @@
       </c>
     </row>
     <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="89">
+      <c r="A77" s="73">
         <v>1</v>
       </c>
-      <c r="B77" s="83" t="s">
+      <c r="B77" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="84"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="92"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="91"/>
+      <c r="F77" s="91"/>
+      <c r="G77" s="93"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5755,13 +5755,13 @@
       <c r="W77" s="64"/>
     </row>
     <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="90"/>
-      <c r="B78" s="86"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="93"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="90"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="94"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5783,19 +5783,19 @@
       <c r="W78" s="63"/>
     </row>
     <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="89"/>
-      <c r="B79" s="91" t="s">
+      <c r="A79" s="73"/>
+      <c r="B79" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="85"/>
-      <c r="E79" s="77" t="s">
+      <c r="D79" s="78"/>
+      <c r="E79" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="77"/>
-      <c r="G79" s="79"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="83"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5826,13 +5826,13 @@
       <c r="W79" s="64"/>
     </row>
     <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="90"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="80"/>
+      <c r="A80" s="74"/>
+      <c r="B80" s="76"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="76"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5869,19 +5869,19 @@
       <c r="W80" s="63"/>
     </row>
     <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="89"/>
-      <c r="B81" s="91" t="s">
+      <c r="A81" s="73"/>
+      <c r="B81" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="85"/>
-      <c r="E81" s="77" t="s">
+      <c r="D81" s="78"/>
+      <c r="E81" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="77"/>
-      <c r="G81" s="79"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="83"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5912,13 +5912,13 @@
       <c r="W81" s="64"/>
     </row>
     <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="90"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="88"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="80"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="76"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="76"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5952,15 +5952,15 @@
       </c>
     </row>
     <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="96" t="s">
+      <c r="A83" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="98"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="138"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="103"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -6006,13 +6006,13 @@
       <c r="W83" s="65"/>
     </row>
     <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="99"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="95"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="139"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="99"/>
+      <c r="C84" s="99"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="104"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -6020,7 +6020,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$85:K$96),2)=0)*K$85:K$96)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L84" s="37">
         <f>SUMPRODUCT((MOD(ROW(L$85:L$96),2)=0)*L$85:L$96)</f>
@@ -6060,17 +6060,17 @@
       <c r="W84" s="66"/>
     </row>
     <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="89">
+      <c r="A85" s="73">
         <v>1</v>
       </c>
-      <c r="B85" s="83" t="s">
+      <c r="B85" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="84"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="81"/>
-      <c r="G85" s="92"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="91"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="93"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -6092,13 +6092,13 @@
       <c r="W85" s="64"/>
     </row>
     <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="90"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="87"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="93"/>
+      <c r="A86" s="74"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="94"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -6120,19 +6120,19 @@
       <c r="W86" s="63"/>
     </row>
     <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="89"/>
-      <c r="B87" s="91" t="s">
+      <c r="A87" s="73"/>
+      <c r="B87" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="85"/>
-      <c r="E87" s="77" t="s">
+      <c r="D87" s="78"/>
+      <c r="E87" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="77"/>
-      <c r="G87" s="79"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="83"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -6163,22 +6163,25 @@
       <c r="W87" s="64"/>
     </row>
     <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="90"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="88"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="80"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="76"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I88" s="52"/>
-      <c r="J88" s="52"/>
+      <c r="I88" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88" s="52">
+        <v>6</v>
+      </c>
       <c r="K88" s="10">
-        <f>SUM(L88:S88)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L88" s="41"/>
       <c r="M88" s="32"/>
@@ -6191,25 +6194,25 @@
       <c r="T88" s="63"/>
       <c r="U88" s="63"/>
       <c r="V88" s="63"/>
-      <c r="W88" s="140">
+      <c r="W88" s="72">
         <f>1.5*6</f>
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="89"/>
-      <c r="B89" s="91" t="s">
+      <c r="A89" s="73"/>
+      <c r="B89" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="85"/>
-      <c r="E89" s="77" t="s">
+      <c r="D89" s="78"/>
+      <c r="E89" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="77"/>
-      <c r="G89" s="79"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="83"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -6240,13 +6243,13 @@
       <c r="W89" s="71"/>
     </row>
     <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="90"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="80"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="76"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -6271,17 +6274,17 @@
       <c r="W90" s="63"/>
     </row>
     <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="89">
+      <c r="A91" s="73">
         <v>2</v>
       </c>
-      <c r="B91" s="83" t="s">
+      <c r="B91" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="92"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="91"/>
+      <c r="F91" s="91"/>
+      <c r="G91" s="93"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -6305,13 +6308,13 @@
       <c r="W91" s="64"/>
     </row>
     <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="90"/>
-      <c r="B92" s="86"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="93"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="94"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -6333,19 +6336,19 @@
       <c r="W92" s="63"/>
     </row>
     <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="89"/>
-      <c r="B93" s="91" t="s">
+      <c r="A93" s="73"/>
+      <c r="B93" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="83" t="s">
+      <c r="C93" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="85"/>
-      <c r="E93" s="77" t="s">
+      <c r="D93" s="78"/>
+      <c r="E93" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="77"/>
-      <c r="G93" s="79"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="83"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6376,13 +6379,13 @@
       <c r="W93" s="64"/>
     </row>
     <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="90"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="80"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="76"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="80"/>
+      <c r="E94" s="82"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="76"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6407,19 +6410,19 @@
       <c r="W94" s="63"/>
     </row>
     <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="89"/>
-      <c r="B95" s="91" t="s">
+      <c r="A95" s="73"/>
+      <c r="B95" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="85"/>
-      <c r="E95" s="77" t="s">
+      <c r="D95" s="78"/>
+      <c r="E95" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="77"/>
-      <c r="G95" s="79"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="83"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -6450,13 +6453,13 @@
       <c r="W95" s="64"/>
     </row>
     <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="90"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="86"/>
-      <c r="D96" s="88"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="80"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="76"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="80"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="76"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -6481,15 +6484,15 @@
       <c r="W96" s="63"/>
     </row>
     <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="96" t="s">
+      <c r="A97" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="98"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="138"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="96"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="101"/>
+      <c r="F97" s="101"/>
+      <c r="G97" s="103"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -6536,13 +6539,13 @@
       <c r="W97" s="65"/>
     </row>
     <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="99"/>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
-      <c r="G98" s="139"/>
+      <c r="A98" s="98"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="102"/>
+      <c r="F98" s="102"/>
+      <c r="G98" s="104"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -6590,19 +6593,19 @@
       <c r="W98" s="66"/>
     </row>
     <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="89">
+      <c r="A99" s="73">
         <v>1</v>
       </c>
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="84"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="81" t="s">
+      <c r="C99" s="89"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="81"/>
-      <c r="G99" s="92"/>
+      <c r="F99" s="91"/>
+      <c r="G99" s="93"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -6624,13 +6627,13 @@
       <c r="W99" s="64"/>
     </row>
     <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="90"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="93"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="94"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -6652,19 +6655,19 @@
       <c r="W100" s="63"/>
     </row>
     <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="89"/>
-      <c r="B101" s="91" t="s">
+      <c r="A101" s="73"/>
+      <c r="B101" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="85"/>
-      <c r="E101" s="77" t="s">
+      <c r="D101" s="78"/>
+      <c r="E101" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="77"/>
-      <c r="G101" s="79"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="83"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6694,13 +6697,13 @@
       <c r="W101" s="64"/>
     </row>
     <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="90"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="80"/>
+      <c r="A102" s="74"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6725,19 +6728,19 @@
       <c r="W102" s="63"/>
     </row>
     <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="89"/>
-      <c r="B103" s="91" t="s">
+      <c r="A103" s="73"/>
+      <c r="B103" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="83" t="s">
+      <c r="C103" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="85"/>
-      <c r="E103" s="77" t="s">
+      <c r="D103" s="78"/>
+      <c r="E103" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="77"/>
-      <c r="G103" s="79"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="83"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6767,13 +6770,13 @@
       <c r="W103" s="64"/>
     </row>
     <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="90"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="88"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="80"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="76"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6798,19 +6801,19 @@
       <c r="W104" s="63"/>
     </row>
     <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="89">
+      <c r="A105" s="73">
         <v>2</v>
       </c>
-      <c r="B105" s="83" t="s">
+      <c r="B105" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="84"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="81" t="s">
+      <c r="C105" s="89"/>
+      <c r="D105" s="78"/>
+      <c r="E105" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="81"/>
-      <c r="G105" s="92"/>
+      <c r="F105" s="91"/>
+      <c r="G105" s="93"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6832,13 +6835,13 @@
       <c r="W105" s="64"/>
     </row>
     <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="90"/>
-      <c r="B106" s="86"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="93"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="80"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="94"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6860,19 +6863,19 @@
       <c r="W106" s="63"/>
     </row>
     <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="89"/>
-      <c r="B107" s="91" t="s">
+      <c r="A107" s="73"/>
+      <c r="B107" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="83" t="s">
+      <c r="C107" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="85"/>
-      <c r="E107" s="77" t="s">
+      <c r="D107" s="78"/>
+      <c r="E107" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="77"/>
-      <c r="G107" s="79"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="83"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6902,13 +6905,13 @@
       <c r="W107" s="64"/>
     </row>
     <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="90"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="80"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="76"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="76"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6933,19 +6936,19 @@
       <c r="W108" s="63"/>
     </row>
     <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="89"/>
-      <c r="B109" s="91" t="s">
+      <c r="A109" s="73"/>
+      <c r="B109" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="85"/>
-      <c r="E109" s="77" t="s">
+      <c r="D109" s="78"/>
+      <c r="E109" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="77"/>
-      <c r="G109" s="79"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="83"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6975,13 +6978,13 @@
       <c r="W109" s="64"/>
     </row>
     <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="90"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="78"/>
-      <c r="F110" s="78"/>
-      <c r="G110" s="80"/>
+      <c r="A110" s="74"/>
+      <c r="B110" s="76"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -7021,6 +7024,297 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
     <mergeCell ref="C93:D94"/>
@@ -7045,297 +7339,6 @@
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="F77:F78"/>
     <mergeCell ref="G77:G78"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34 L77:S79 L81:S82 L80:T80">
@@ -7609,18 +7612,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7642,18 +7645,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(0609更新).xlsx
+++ b/13_WBSガントチャート(0609更新).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361989C0-4CE9-4340-B7B9-C92E863730ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF706A04-90BE-4F07-AAD2-E6207E650627}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="74">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -616,6 +616,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>7日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -679,7 +689,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="60">
     <border>
@@ -1524,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1718,6 +1734,57 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1727,63 +1794,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1802,10 +1824,112 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1814,119 +1938,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2043,9 +2078,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66CC"/>
+      <color rgb="FFFF99CC"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF99CC"/>
-      <color rgb="FFFF66CC"/>
       <color rgb="FFFF6699"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FF99CCFF"/>
@@ -2523,13 +2558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="R131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="R87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K89" sqref="K89"/>
+      <selection pane="bottomRight" activeCell="X102" sqref="X102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2548,145 +2583,157 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="125" t="s">
+    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="125" t="s">
+      <c r="I1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="125" t="s">
+      <c r="J1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="135" t="s">
+      <c r="K1" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="84">
+      <c r="L1" s="73">
         <v>43984</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="84">
+      <c r="M1" s="74"/>
+      <c r="N1" s="73">
         <v>43985</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="84">
+      <c r="O1" s="74"/>
+      <c r="P1" s="73">
         <v>43986</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="84">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="73">
         <v>43987</v>
       </c>
-      <c r="S1" s="85"/>
-      <c r="T1" s="84">
+      <c r="S1" s="74"/>
+      <c r="T1" s="73">
         <v>43990</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="84">
+      <c r="U1" s="74"/>
+      <c r="V1" s="73">
         <v>43991</v>
       </c>
-      <c r="W1" s="85"/>
-    </row>
-    <row r="2" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="130" t="s">
+      <c r="W1" s="74"/>
+      <c r="X1" s="73">
+        <v>43992</v>
+      </c>
+      <c r="Y1" s="74"/>
+    </row>
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="123"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="86" t="s">
+      <c r="M2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="131" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="86" t="s">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="86" t="s">
+      <c r="S2" s="76"/>
+      <c r="T2" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="87"/>
-      <c r="V2" s="86" t="s">
+      <c r="U2" s="76"/>
+      <c r="V2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="87"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="134" t="s">
+      <c r="W2" s="76"/>
+      <c r="X2" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="76"/>
+    </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="123"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="132" t="s">
+      <c r="M3" s="107"/>
+      <c r="N3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="132" t="s">
+      <c r="O3" s="107"/>
+      <c r="P3" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="88" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88" t="s">
+      <c r="U3" s="77"/>
+      <c r="V3" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="W3" s="88"/>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="109"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="137"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="77"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="124"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2723,17 +2770,23 @@
       <c r="W4" s="56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="111" t="s">
+      <c r="X4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="138"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="115"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2789,15 +2842,23 @@
         <f>SUM(W7,W23,W41,W57,W75,W83,W97)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="114"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="139"/>
+      <c r="X5" s="59">
+        <f>SUM(X7,X23,X41,X57,X75,X83,X97)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="59">
+        <f>SUM(Y7,Y23,Y41,Y57,Y75,Y83,Y97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="116"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2851,17 +2912,25 @@
         <f>21</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="119" t="s">
+      <c r="X6" s="68">
+        <f>SUM(X8,X24,X42,X58,X76,X84,X98)</f>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="68">
+        <f>21</f>
         <v>21</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="122"/>
+    </row>
+    <row r="7" spans="1:25" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2906,15 +2975,17 @@
       <c r="U7" s="61"/>
       <c r="V7" s="61"/>
       <c r="W7" s="61"/>
-    </row>
-    <row r="8" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="123"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+    </row>
+    <row r="8" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="137"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2960,20 +3031,22 @@
       <c r="U8" s="66"/>
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="73">
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+    </row>
+    <row r="9" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="90">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="91" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="91" t="s">
+      <c r="F9" s="82" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="93"/>
@@ -2996,14 +3069,16 @@
       <c r="U9" s="64"/>
       <c r="V9" s="64"/>
       <c r="W9" s="64"/>
-    </row>
-    <row r="10" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+    </row>
+    <row r="10" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="91"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="94"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -3024,23 +3099,25 @@
       <c r="U10" s="63"/>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
-    </row>
-    <row r="11" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="73"/>
-      <c r="B11" s="75" t="s">
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+    </row>
+    <row r="11" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="90"/>
+      <c r="B11" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="81" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -3069,15 +3146,17 @@
       <c r="U11" s="64"/>
       <c r="V11" s="64"/>
       <c r="W11" s="64"/>
-    </row>
-    <row r="12" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="76"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+    </row>
+    <row r="12" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="91"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -3106,23 +3185,25 @@
       <c r="U12" s="63"/>
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
-    </row>
-    <row r="13" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73"/>
-      <c r="B13" s="75" t="s">
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+    </row>
+    <row r="13" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="90"/>
+      <c r="B13" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="81" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="83"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -3150,15 +3231,17 @@
       <c r="U13" s="64"/>
       <c r="V13" s="64"/>
       <c r="W13" s="64"/>
-    </row>
-    <row r="14" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="76"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+    </row>
+    <row r="14" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="91"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -3187,20 +3270,22 @@
       <c r="U14" s="63"/>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
-    </row>
-    <row r="15" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="73">
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+    </row>
+    <row r="15" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="90">
         <v>2</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="91" t="s">
+      <c r="C15" s="85"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="91"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="93"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -3221,14 +3306,16 @@
       <c r="U15" s="64"/>
       <c r="V15" s="64"/>
       <c r="W15" s="64"/>
-    </row>
-    <row r="16" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+    </row>
+    <row r="16" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="91"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="94"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -3249,23 +3336,25 @@
       <c r="U16" s="63"/>
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
-    </row>
-    <row r="17" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="73"/>
-      <c r="B17" s="75" t="s">
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+    </row>
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="90"/>
+      <c r="B17" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="81" t="s">
+      <c r="D17" s="86"/>
+      <c r="E17" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="81" t="s">
+      <c r="F17" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3293,15 +3382,17 @@
       <c r="U17" s="64"/>
       <c r="V17" s="64"/>
       <c r="W17" s="64"/>
-    </row>
-    <row r="18" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="76"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+    </row>
+    <row r="18" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="91"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3330,23 +3421,25 @@
       <c r="U18" s="63"/>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
-    </row>
-    <row r="19" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="73"/>
-      <c r="B19" s="75" t="s">
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+    </row>
+    <row r="19" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="78"/>
-      <c r="E19" s="81" t="s">
+      <c r="D19" s="86"/>
+      <c r="E19" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3374,15 +3467,17 @@
       <c r="U19" s="64"/>
       <c r="V19" s="64"/>
       <c r="W19" s="64"/>
-    </row>
-    <row r="20" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="76"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+    </row>
+    <row r="20" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="91"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3411,23 +3506,25 @@
       <c r="U20" s="63"/>
       <c r="V20" s="63"/>
       <c r="W20" s="63"/>
-    </row>
-    <row r="21" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="73"/>
-      <c r="B21" s="75" t="s">
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+    </row>
+    <row r="21" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="90"/>
+      <c r="B21" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="86"/>
+      <c r="E21" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="80"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3455,15 +3552,17 @@
       <c r="U21" s="64"/>
       <c r="V21" s="64"/>
       <c r="W21" s="64"/>
-    </row>
-    <row r="22" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="76"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+    </row>
+    <row r="22" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3492,17 +3591,19 @@
       <c r="U22" s="63"/>
       <c r="V22" s="63"/>
       <c r="W22" s="63"/>
-    </row>
-    <row r="23" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="95" t="s">
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+    </row>
+    <row r="23" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="103"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="139"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3548,15 +3649,17 @@
       <c r="U23" s="65"/>
       <c r="V23" s="65"/>
       <c r="W23" s="65"/>
-    </row>
-    <row r="24" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="104"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+    </row>
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="100"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="140"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3602,20 +3705,22 @@
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
-    </row>
-    <row r="25" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73">
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+    </row>
+    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="90">
         <v>1</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="91" t="s">
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="91"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="93"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3636,14 +3741,16 @@
       <c r="U25" s="64"/>
       <c r="V25" s="64"/>
       <c r="W25" s="64"/>
-    </row>
-    <row r="26" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+    </row>
+    <row r="26" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="91"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="94"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3664,23 +3771,25 @@
       <c r="U26" s="63"/>
       <c r="V26" s="63"/>
       <c r="W26" s="63"/>
-    </row>
-    <row r="27" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
-      <c r="B27" s="75" t="s">
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+    </row>
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="90"/>
+      <c r="B27" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="81" t="s">
+      <c r="D27" s="86"/>
+      <c r="E27" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="83"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3709,15 +3818,17 @@
       <c r="U27" s="64"/>
       <c r="V27" s="64"/>
       <c r="W27" s="64"/>
-    </row>
-    <row r="28" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="76"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+    </row>
+    <row r="28" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="91"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3746,23 +3857,25 @@
       <c r="U28" s="63"/>
       <c r="V28" s="63"/>
       <c r="W28" s="63"/>
-    </row>
-    <row r="29" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
-      <c r="B29" s="75" t="s">
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+    </row>
+    <row r="29" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="90"/>
+      <c r="B29" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="81" t="s">
+      <c r="D29" s="86"/>
+      <c r="E29" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="81" t="s">
+      <c r="F29" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="83"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3791,15 +3904,17 @@
       <c r="U29" s="64"/>
       <c r="V29" s="64"/>
       <c r="W29" s="64"/>
-    </row>
-    <row r="30" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="76"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+    </row>
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="91"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3828,21 +3943,23 @@
       <c r="U30" s="63"/>
       <c r="V30" s="63"/>
       <c r="W30" s="63"/>
-    </row>
-    <row r="31" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
-      <c r="B31" s="75" t="s">
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+    </row>
+    <row r="31" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="90"/>
+      <c r="B31" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="81"/>
-      <c r="G31" s="83"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3871,15 +3988,17 @@
       <c r="U31" s="64"/>
       <c r="V31" s="64"/>
       <c r="W31" s="64"/>
-    </row>
-    <row r="32" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="76"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+    </row>
+    <row r="32" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="91"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3908,20 +4027,22 @@
       <c r="U32" s="63"/>
       <c r="V32" s="63"/>
       <c r="W32" s="63"/>
-    </row>
-    <row r="33" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73">
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+    </row>
+    <row r="33" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="90">
         <v>2</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="91" t="s">
+      <c r="C33" s="85"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="91"/>
+      <c r="F33" s="82"/>
       <c r="G33" s="93"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
@@ -3942,14 +4063,16 @@
       <c r="U33" s="64"/>
       <c r="V33" s="64"/>
       <c r="W33" s="64"/>
-    </row>
-    <row r="34" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+    </row>
+    <row r="34" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="91"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
       <c r="G34" s="94"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3970,21 +4093,23 @@
       <c r="U34" s="63"/>
       <c r="V34" s="63"/>
       <c r="W34" s="63"/>
-    </row>
-    <row r="35" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="75" t="s">
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+    </row>
+    <row r="35" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="90"/>
+      <c r="B35" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="81" t="s">
+      <c r="D35" s="86"/>
+      <c r="E35" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="81"/>
-      <c r="G35" s="83"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -4013,15 +4138,17 @@
       <c r="U35" s="64"/>
       <c r="V35" s="64"/>
       <c r="W35" s="64"/>
-    </row>
-    <row r="36" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="76"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+    </row>
+    <row r="36" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="91"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -4050,21 +4177,23 @@
       <c r="U36" s="63"/>
       <c r="V36" s="63"/>
       <c r="W36" s="63"/>
-    </row>
-    <row r="37" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="73"/>
-      <c r="B37" s="75" t="s">
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+    </row>
+    <row r="37" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="90"/>
+      <c r="B37" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="78"/>
-      <c r="E37" s="81" t="s">
+      <c r="D37" s="86"/>
+      <c r="E37" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="81"/>
-      <c r="G37" s="83"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -4093,15 +4222,17 @@
       <c r="U37" s="64"/>
       <c r="V37" s="64"/>
       <c r="W37" s="64"/>
-    </row>
-    <row r="38" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="76"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+    </row>
+    <row r="38" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="91"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -4130,21 +4261,23 @@
       <c r="U38" s="63"/>
       <c r="V38" s="63"/>
       <c r="W38" s="63"/>
-    </row>
-    <row r="39" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="73"/>
-      <c r="B39" s="75" t="s">
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+    </row>
+    <row r="39" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="90"/>
+      <c r="B39" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="78"/>
-      <c r="E39" s="81" t="s">
+      <c r="D39" s="86"/>
+      <c r="E39" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="81"/>
-      <c r="G39" s="83"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -4173,15 +4306,17 @@
       <c r="U39" s="64"/>
       <c r="V39" s="64"/>
       <c r="W39" s="64"/>
-    </row>
-    <row r="40" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="76"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+    </row>
+    <row r="40" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="91"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -4209,17 +4344,19 @@
       <c r="U40" s="63"/>
       <c r="V40" s="63"/>
       <c r="W40" s="63"/>
-    </row>
-    <row r="41" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="95" t="s">
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+    </row>
+    <row r="41" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="103"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="139"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -4265,15 +4402,17 @@
       <c r="U41" s="65"/>
       <c r="V41" s="65"/>
       <c r="W41" s="65"/>
-    </row>
-    <row r="42" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="98"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="102"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="104"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+    </row>
+    <row r="42" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="100"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="140"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -4319,20 +4458,22 @@
       <c r="U42" s="66"/>
       <c r="V42" s="66"/>
       <c r="W42" s="66"/>
-    </row>
-    <row r="43" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73">
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+    </row>
+    <row r="43" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="90">
         <v>1</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="B43" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="91" t="s">
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="91"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="93"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
@@ -4353,14 +4494,16 @@
       <c r="U43" s="64"/>
       <c r="V43" s="64"/>
       <c r="W43" s="64"/>
-    </row>
-    <row r="44" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="74"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+    </row>
+    <row r="44" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="91"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
       <c r="G44" s="94"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
@@ -4381,21 +4524,23 @@
       <c r="U44" s="63"/>
       <c r="V44" s="63"/>
       <c r="W44" s="63"/>
-    </row>
-    <row r="45" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="73"/>
-      <c r="B45" s="75" t="s">
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+    </row>
+    <row r="45" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="90"/>
+      <c r="B45" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="78"/>
-      <c r="E45" s="81" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="81"/>
-      <c r="G45" s="83"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="80"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4426,15 +4571,17 @@
       <c r="U45" s="64"/>
       <c r="V45" s="64"/>
       <c r="W45" s="64"/>
-    </row>
-    <row r="46" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="74"/>
-      <c r="B46" s="76"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="76"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+    </row>
+    <row r="46" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="91"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4464,21 +4611,23 @@
       <c r="U46" s="63"/>
       <c r="V46" s="63"/>
       <c r="W46" s="63"/>
-    </row>
-    <row r="47" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="73"/>
-      <c r="B47" s="75" t="s">
+      <c r="X46" s="63"/>
+      <c r="Y46" s="63"/>
+    </row>
+    <row r="47" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="90"/>
+      <c r="B47" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="78"/>
-      <c r="E47" s="81" t="s">
+      <c r="D47" s="86"/>
+      <c r="E47" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="81"/>
-      <c r="G47" s="83"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4507,15 +4656,17 @@
       <c r="U47" s="64"/>
       <c r="V47" s="64"/>
       <c r="W47" s="64"/>
-    </row>
-    <row r="48" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="74"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="76"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+    </row>
+    <row r="48" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="91"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4544,20 +4695,22 @@
       <c r="U48" s="63"/>
       <c r="V48" s="63"/>
       <c r="W48" s="63"/>
-    </row>
-    <row r="49" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73">
+      <c r="X48" s="63"/>
+      <c r="Y48" s="63"/>
+    </row>
+    <row r="49" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="90">
         <v>2</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="89"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="91" t="s">
+      <c r="C49" s="85"/>
+      <c r="D49" s="86"/>
+      <c r="E49" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="91"/>
+      <c r="F49" s="82"/>
       <c r="G49" s="93"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
@@ -4578,14 +4731,16 @@
       <c r="U49" s="64"/>
       <c r="V49" s="64"/>
       <c r="W49" s="64"/>
-    </row>
-    <row r="50" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="74"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+    </row>
+    <row r="50" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="91"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
       <c r="G50" s="94"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4606,21 +4761,23 @@
       <c r="U50" s="63"/>
       <c r="V50" s="63"/>
       <c r="W50" s="63"/>
-    </row>
-    <row r="51" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="73"/>
-      <c r="B51" s="75" t="s">
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+    </row>
+    <row r="51" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="90"/>
+      <c r="B51" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="81" t="s">
+      <c r="D51" s="86"/>
+      <c r="E51" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="81"/>
-      <c r="G51" s="83"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="80"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4649,15 +4806,17 @@
       <c r="U51" s="64"/>
       <c r="V51" s="64"/>
       <c r="W51" s="64"/>
-    </row>
-    <row r="52" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="74"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="76"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+    </row>
+    <row r="52" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="91"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4685,21 +4844,23 @@
       <c r="U52" s="63"/>
       <c r="V52" s="63"/>
       <c r="W52" s="63"/>
-    </row>
-    <row r="53" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="73"/>
-      <c r="B53" s="75" t="s">
+      <c r="X52" s="63"/>
+      <c r="Y52" s="63"/>
+    </row>
+    <row r="53" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="90"/>
+      <c r="B53" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="77" t="s">
+      <c r="C53" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="78"/>
-      <c r="E53" s="81" t="s">
+      <c r="D53" s="86"/>
+      <c r="E53" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="81"/>
-      <c r="G53" s="83"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4728,15 +4889,17 @@
       <c r="U53" s="64"/>
       <c r="V53" s="49"/>
       <c r="W53" s="64"/>
-    </row>
-    <row r="54" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="74"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="76"/>
+      <c r="X53" s="49"/>
+      <c r="Y53" s="64"/>
+    </row>
+    <row r="54" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="91"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="81"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4765,21 +4928,23 @@
       <c r="U54" s="63"/>
       <c r="V54" s="63"/>
       <c r="W54" s="63"/>
-    </row>
-    <row r="55" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="73"/>
-      <c r="B55" s="75" t="s">
+      <c r="X54" s="63"/>
+      <c r="Y54" s="63"/>
+    </row>
+    <row r="55" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="90"/>
+      <c r="B55" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="78"/>
-      <c r="E55" s="81" t="s">
+      <c r="D55" s="86"/>
+      <c r="E55" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="81"/>
-      <c r="G55" s="83"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="80"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4808,15 +4973,17 @@
       <c r="U55" s="64"/>
       <c r="V55" s="49"/>
       <c r="W55" s="64"/>
-    </row>
-    <row r="56" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="74"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
-      <c r="G56" s="76"/>
+      <c r="X55" s="49"/>
+      <c r="Y55" s="64"/>
+    </row>
+    <row r="56" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="91"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4845,17 +5012,19 @@
       <c r="U56" s="63"/>
       <c r="V56" s="63"/>
       <c r="W56" s="63"/>
-    </row>
-    <row r="57" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="95" t="s">
+      <c r="X56" s="63"/>
+      <c r="Y56" s="63"/>
+    </row>
+    <row r="57" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="103"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="139"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4904,15 +5073,20 @@
         <v>0</v>
       </c>
       <c r="W57" s="65"/>
-    </row>
-    <row r="58" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="98"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="104"/>
+      <c r="X57" s="65">
+        <f>SUMPRODUCT((MOD(ROW(X$59:X$74),2)=1)*X$59:X$74)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="65"/>
+    </row>
+    <row r="58" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="100"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="140"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4970,20 +5144,28 @@
         <f>SUMPRODUCT((MOD(ROW(W$59:W$74),2)=0)*W$59:W$74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73">
+      <c r="X58" s="66">
+        <f>Y58</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="66">
+        <f>SUMPRODUCT((MOD(ROW(Y$59:Y$74),2)=0)*Y$59:Y$74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="90">
         <v>1</v>
       </c>
-      <c r="B59" s="77" t="s">
+      <c r="B59" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="89"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="91" t="s">
+      <c r="C59" s="85"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="91"/>
+      <c r="F59" s="82"/>
       <c r="G59" s="93"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
@@ -5004,14 +5186,16 @@
       <c r="U59" s="64"/>
       <c r="V59" s="64"/>
       <c r="W59" s="64"/>
-    </row>
-    <row r="60" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="74"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
+      <c r="X59" s="64"/>
+      <c r="Y59" s="64"/>
+    </row>
+    <row r="60" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="91"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="94"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
@@ -5032,21 +5216,23 @@
       <c r="U60" s="63"/>
       <c r="V60" s="63"/>
       <c r="W60" s="63"/>
-    </row>
-    <row r="61" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="73"/>
-      <c r="B61" s="75" t="s">
+      <c r="X60" s="63"/>
+      <c r="Y60" s="63"/>
+    </row>
+    <row r="61" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="90"/>
+      <c r="B61" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="77" t="s">
+      <c r="C61" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="78"/>
-      <c r="E61" s="81" t="s">
+      <c r="D61" s="86"/>
+      <c r="E61" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="81"/>
-      <c r="G61" s="83"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="80"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -5076,15 +5262,17 @@
       <c r="U61" s="64"/>
       <c r="V61" s="64"/>
       <c r="W61" s="64"/>
-    </row>
-    <row r="62" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="74"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="76"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+    </row>
+    <row r="62" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="91"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="81"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -5114,21 +5302,23 @@
       <c r="U62" s="63"/>
       <c r="V62" s="63"/>
       <c r="W62" s="63"/>
-    </row>
-    <row r="63" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="73"/>
-      <c r="B63" s="75" t="s">
+      <c r="X62" s="63"/>
+      <c r="Y62" s="63"/>
+    </row>
+    <row r="63" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="90"/>
+      <c r="B63" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="78"/>
-      <c r="E63" s="81" t="s">
+      <c r="D63" s="86"/>
+      <c r="E63" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="81"/>
-      <c r="G63" s="83"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="80"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -5157,15 +5347,17 @@
       <c r="U63" s="64"/>
       <c r="V63" s="64"/>
       <c r="W63" s="64"/>
-    </row>
-    <row r="64" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="74"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="76"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+    </row>
+    <row r="64" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="91"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="81"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -5195,21 +5387,23 @@
       <c r="U64" s="63"/>
       <c r="V64" s="63"/>
       <c r="W64" s="63"/>
-    </row>
-    <row r="65" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="73"/>
-      <c r="B65" s="75" t="s">
+      <c r="X64" s="63"/>
+      <c r="Y64" s="63"/>
+    </row>
+    <row r="65" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="90"/>
+      <c r="B65" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="78"/>
-      <c r="E65" s="81" t="s">
+      <c r="D65" s="86"/>
+      <c r="E65" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="81"/>
-      <c r="G65" s="83"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -5238,15 +5432,17 @@
       <c r="U65" s="64"/>
       <c r="V65" s="64"/>
       <c r="W65" s="64"/>
-    </row>
-    <row r="66" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="74"/>
-      <c r="B66" s="76"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="82"/>
-      <c r="F66" s="82"/>
-      <c r="G66" s="76"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+    </row>
+    <row r="66" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="91"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="79"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -5279,20 +5475,22 @@
       <c r="U66" s="63"/>
       <c r="V66" s="63"/>
       <c r="W66" s="63"/>
-    </row>
-    <row r="67" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="73">
+      <c r="X66" s="63"/>
+      <c r="Y66" s="63"/>
+    </row>
+    <row r="67" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="90">
         <v>2</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="91" t="s">
+      <c r="C67" s="85"/>
+      <c r="D67" s="86"/>
+      <c r="E67" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="91"/>
+      <c r="F67" s="82"/>
       <c r="G67" s="93"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
@@ -5313,14 +5511,16 @@
       <c r="U67" s="64"/>
       <c r="V67" s="64"/>
       <c r="W67" s="64"/>
-    </row>
-    <row r="68" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="74"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="92"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+    </row>
+    <row r="68" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="91"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
       <c r="G68" s="94"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
@@ -5341,21 +5541,23 @@
       <c r="U68" s="63"/>
       <c r="V68" s="63"/>
       <c r="W68" s="63"/>
-    </row>
-    <row r="69" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="73"/>
-      <c r="B69" s="75" t="s">
+      <c r="X68" s="63"/>
+      <c r="Y68" s="63"/>
+    </row>
+    <row r="69" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="90"/>
+      <c r="B69" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="81" t="s">
+      <c r="D69" s="86"/>
+      <c r="E69" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="81"/>
-      <c r="G69" s="83"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -5384,15 +5586,17 @@
       <c r="U69" s="64"/>
       <c r="V69" s="64"/>
       <c r="W69" s="64"/>
-    </row>
-    <row r="70" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="74"/>
-      <c r="B70" s="76"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="82"/>
-      <c r="F70" s="82"/>
-      <c r="G70" s="76"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+    </row>
+    <row r="70" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="91"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="87"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="79"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -5428,21 +5632,23 @@
       <c r="U70" s="63"/>
       <c r="V70" s="63"/>
       <c r="W70" s="63"/>
-    </row>
-    <row r="71" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
-      <c r="B71" s="75" t="s">
+      <c r="X70" s="63"/>
+      <c r="Y70" s="63"/>
+    </row>
+    <row r="71" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="90"/>
+      <c r="B71" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="81" t="s">
+      <c r="D71" s="86"/>
+      <c r="E71" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="81"/>
-      <c r="G71" s="83"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="80"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -5471,15 +5677,17 @@
       <c r="U71" s="64"/>
       <c r="V71" s="64"/>
       <c r="W71" s="64"/>
-    </row>
-    <row r="72" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="74"/>
-      <c r="B72" s="76"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="76"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+    </row>
+    <row r="72" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="91"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="79"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="81"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -5515,21 +5723,23 @@
       <c r="U72" s="63"/>
       <c r="V72" s="63"/>
       <c r="W72" s="63"/>
-    </row>
-    <row r="73" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="73"/>
-      <c r="B73" s="75" t="s">
+      <c r="X72" s="63"/>
+      <c r="Y72" s="63"/>
+    </row>
+    <row r="73" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="90"/>
+      <c r="B73" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="77" t="s">
+      <c r="C73" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="78"/>
-      <c r="E73" s="81" t="s">
+      <c r="D73" s="86"/>
+      <c r="E73" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="81"/>
-      <c r="G73" s="83"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5558,15 +5768,17 @@
       <c r="U73" s="64"/>
       <c r="V73" s="64"/>
       <c r="W73" s="64"/>
-    </row>
-    <row r="74" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="74"/>
-      <c r="B74" s="76"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="82"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="76"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+    </row>
+    <row r="74" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="91"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5600,17 +5812,19 @@
       <c r="U74" s="63"/>
       <c r="V74" s="63"/>
       <c r="W74" s="63"/>
-    </row>
-    <row r="75" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="95" t="s">
+      <c r="X74" s="63"/>
+      <c r="Y74" s="63"/>
+    </row>
+    <row r="75" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="96"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="101"/>
-      <c r="F75" s="101"/>
-      <c r="G75" s="103"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="139"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5655,15 +5869,20 @@
         <f>SUMPRODUCT((MOD(ROW(W$77:W$82),2)=1)*W$77:W$82)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="98"/>
-      <c r="B76" s="99"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="104"/>
+      <c r="X75" s="65"/>
+      <c r="Y75" s="65">
+        <f>SUMPRODUCT((MOD(ROW(Y$77:Y$82),2)=1)*Y$77:Y$82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="100"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="140"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5721,18 +5940,26 @@
         <f>SUMPRODUCT((MOD(ROW(W$77:W$82),2)=0)*W$77:W$82)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73">
+      <c r="X76" s="67">
+        <f>SUMPRODUCT((MOD(ROW(X$77:X$82),2)=0)*X$77:X$82)</f>
+        <v>3</v>
+      </c>
+      <c r="Y76" s="67">
+        <f>SUMPRODUCT((MOD(ROW(Y$77:Y$82),2)=0)*Y$77:Y$82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="90">
         <v>1</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="91"/>
-      <c r="F77" s="91"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
       <c r="G77" s="93"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
@@ -5753,14 +5980,16 @@
       <c r="U77" s="64"/>
       <c r="V77" s="64"/>
       <c r="W77" s="64"/>
-    </row>
-    <row r="78" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="74"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="92"/>
+      <c r="X77" s="64"/>
+      <c r="Y77" s="64"/>
+    </row>
+    <row r="78" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="91"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
       <c r="G78" s="94"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
@@ -5781,21 +6010,23 @@
       <c r="U78" s="63"/>
       <c r="V78" s="63"/>
       <c r="W78" s="63"/>
-    </row>
-    <row r="79" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="73"/>
-      <c r="B79" s="75" t="s">
+      <c r="X78" s="63"/>
+      <c r="Y78" s="63"/>
+    </row>
+    <row r="79" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="90"/>
+      <c r="B79" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="78"/>
-      <c r="E79" s="81" t="s">
+      <c r="D79" s="86"/>
+      <c r="E79" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="81"/>
-      <c r="G79" s="83"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="80"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5824,15 +6055,17 @@
       <c r="U79" s="64"/>
       <c r="V79" s="64"/>
       <c r="W79" s="64"/>
-    </row>
-    <row r="80" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="74"/>
-      <c r="B80" s="76"/>
-      <c r="C80" s="79"/>
-      <c r="D80" s="80"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="76"/>
+      <c r="X79" s="64"/>
+      <c r="Y79" s="64"/>
+    </row>
+    <row r="80" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="91"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="81"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5867,21 +6100,23 @@
         <v>18</v>
       </c>
       <c r="W80" s="63"/>
-    </row>
-    <row r="81" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="73"/>
-      <c r="B81" s="75" t="s">
+      <c r="X80" s="141"/>
+      <c r="Y80" s="63"/>
+    </row>
+    <row r="81" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="90"/>
+      <c r="B81" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="77" t="s">
+      <c r="C81" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="81" t="s">
+      <c r="D81" s="86"/>
+      <c r="E81" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="81"/>
-      <c r="G81" s="83"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="80"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5910,15 +6145,17 @@
       <c r="U81" s="64"/>
       <c r="V81" s="64"/>
       <c r="W81" s="64"/>
-    </row>
-    <row r="82" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="74"/>
-      <c r="B82" s="76"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="76"/>
+      <c r="X81" s="64"/>
+      <c r="Y81" s="64"/>
+    </row>
+    <row r="82" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="91"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="81"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5950,17 +6187,22 @@
         <f>2*6</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="95" t="s">
+      <c r="X82" s="143">
+        <f>0.5*6</f>
+        <v>3</v>
+      </c>
+      <c r="Y82" s="141"/>
+    </row>
+    <row r="83" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="96"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="101"/>
-      <c r="G83" s="103"/>
+      <c r="B83" s="98"/>
+      <c r="C83" s="98"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="139"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -6004,15 +6246,17 @@
       <c r="U83" s="65"/>
       <c r="V83" s="65"/>
       <c r="W83" s="65"/>
-    </row>
-    <row r="84" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="98"/>
-      <c r="B84" s="99"/>
-      <c r="C84" s="99"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
-      <c r="G84" s="104"/>
+      <c r="X83" s="65"/>
+      <c r="Y83" s="65"/>
+    </row>
+    <row r="84" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="100"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="96"/>
+      <c r="G84" s="140"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -6058,18 +6302,20 @@
       <c r="U84" s="66"/>
       <c r="V84" s="66"/>
       <c r="W84" s="66"/>
-    </row>
-    <row r="85" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73">
+      <c r="X84" s="66"/>
+      <c r="Y84" s="66"/>
+    </row>
+    <row r="85" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="90">
         <v>1</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="89"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
       <c r="G85" s="93"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
@@ -6090,14 +6336,16 @@
       <c r="U85" s="64"/>
       <c r="V85" s="64"/>
       <c r="W85" s="64"/>
-    </row>
-    <row r="86" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="74"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
+      <c r="X85" s="64"/>
+      <c r="Y85" s="64"/>
+    </row>
+    <row r="86" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="91"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
       <c r="G86" s="94"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
@@ -6118,21 +6366,23 @@
       <c r="U86" s="63"/>
       <c r="V86" s="63"/>
       <c r="W86" s="63"/>
-    </row>
-    <row r="87" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="73"/>
-      <c r="B87" s="75" t="s">
+      <c r="X86" s="63"/>
+      <c r="Y86" s="63"/>
+    </row>
+    <row r="87" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="90"/>
+      <c r="B87" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="77" t="s">
+      <c r="C87" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="78"/>
-      <c r="E87" s="81" t="s">
+      <c r="D87" s="86"/>
+      <c r="E87" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="81"/>
-      <c r="G87" s="83"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="80"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -6161,15 +6411,17 @@
       <c r="U87" s="64"/>
       <c r="V87" s="64"/>
       <c r="W87" s="64"/>
-    </row>
-    <row r="88" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="74"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="76"/>
+      <c r="X87" s="64"/>
+      <c r="Y87" s="64"/>
+    </row>
+    <row r="88" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="91"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="81"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -6198,21 +6450,23 @@
         <f>1.5*6</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="73"/>
-      <c r="B89" s="75" t="s">
+      <c r="X88" s="63"/>
+      <c r="Y88" s="142"/>
+    </row>
+    <row r="89" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="90"/>
+      <c r="B89" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="140" t="s">
+      <c r="C89" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="78"/>
-      <c r="E89" s="81" t="s">
+      <c r="D89" s="86"/>
+      <c r="E89" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="81"/>
-      <c r="G89" s="83"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="80"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -6241,15 +6495,17 @@
       <c r="U89" s="64"/>
       <c r="V89" s="64"/>
       <c r="W89" s="71"/>
-    </row>
-    <row r="90" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="74"/>
-      <c r="B90" s="76"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="76"/>
+      <c r="X89" s="64"/>
+      <c r="Y89" s="71"/>
+    </row>
+    <row r="90" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="91"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="81"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -6272,18 +6528,20 @@
       <c r="U90" s="63"/>
       <c r="V90" s="63"/>
       <c r="W90" s="63"/>
-    </row>
-    <row r="91" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="73">
+      <c r="X90" s="63"/>
+      <c r="Y90" s="63"/>
+    </row>
+    <row r="91" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="90">
         <v>2</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="89"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
       <c r="G91" s="93"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
@@ -6306,14 +6564,16 @@
       <c r="U91" s="64"/>
       <c r="V91" s="64"/>
       <c r="W91" s="64"/>
-    </row>
-    <row r="92" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="74"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
+      <c r="X91" s="64"/>
+      <c r="Y91" s="64"/>
+    </row>
+    <row r="92" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="91"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="83"/>
+      <c r="F92" s="83"/>
       <c r="G92" s="94"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
@@ -6334,21 +6594,23 @@
       <c r="U92" s="63"/>
       <c r="V92" s="63"/>
       <c r="W92" s="63"/>
-    </row>
-    <row r="93" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="73"/>
-      <c r="B93" s="75" t="s">
+      <c r="X92" s="63"/>
+      <c r="Y92" s="63"/>
+    </row>
+    <row r="93" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="90"/>
+      <c r="B93" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="78"/>
-      <c r="E93" s="81" t="s">
+      <c r="D93" s="86"/>
+      <c r="E93" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="81"/>
-      <c r="G93" s="83"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="80"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -6377,15 +6639,17 @@
       <c r="U93" s="64"/>
       <c r="V93" s="64"/>
       <c r="W93" s="64"/>
-    </row>
-    <row r="94" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="74"/>
-      <c r="B94" s="76"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="76"/>
+      <c r="X93" s="64"/>
+      <c r="Y93" s="64"/>
+    </row>
+    <row r="94" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="91"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -6408,21 +6672,26 @@
       <c r="U94" s="63"/>
       <c r="V94" s="63"/>
       <c r="W94" s="63"/>
-    </row>
-    <row r="95" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="73"/>
-      <c r="B95" s="75" t="s">
+      <c r="X94" s="143">
+        <f>0.5*6</f>
+        <v>3</v>
+      </c>
+      <c r="Y94" s="63"/>
+    </row>
+    <row r="95" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="90"/>
+      <c r="B95" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="77" t="s">
+      <c r="C95" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="78"/>
-      <c r="E95" s="81" t="s">
+      <c r="D95" s="86"/>
+      <c r="E95" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="81"/>
-      <c r="G95" s="83"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="80"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -6451,15 +6720,17 @@
       <c r="U95" s="64"/>
       <c r="V95" s="64"/>
       <c r="W95" s="64"/>
-    </row>
-    <row r="96" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="74"/>
-      <c r="B96" s="76"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="76"/>
+      <c r="X95" s="64"/>
+      <c r="Y95" s="64"/>
+    </row>
+    <row r="96" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="91"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="81"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -6482,17 +6753,22 @@
       <c r="U96" s="63"/>
       <c r="V96" s="63"/>
       <c r="W96" s="63"/>
-    </row>
-    <row r="97" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="95" t="s">
+      <c r="X96" s="143">
+        <f>6*0.5</f>
+        <v>3</v>
+      </c>
+      <c r="Y96" s="63"/>
+    </row>
+    <row r="97" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="101"/>
-      <c r="F97" s="101"/>
-      <c r="G97" s="103"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="99"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
+      <c r="G97" s="139"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -6537,15 +6813,17 @@
       <c r="U97" s="65"/>
       <c r="V97" s="65"/>
       <c r="W97" s="65"/>
-    </row>
-    <row r="98" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="98"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="99"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="104"/>
+      <c r="X97" s="65"/>
+      <c r="Y97" s="65"/>
+    </row>
+    <row r="98" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="100"/>
+      <c r="B98" s="101"/>
+      <c r="C98" s="101"/>
+      <c r="D98" s="102"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="96"/>
+      <c r="G98" s="140"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -6591,20 +6869,22 @@
       <c r="U98" s="66"/>
       <c r="V98" s="66"/>
       <c r="W98" s="66"/>
-    </row>
-    <row r="99" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73">
+      <c r="X98" s="66"/>
+      <c r="Y98" s="66"/>
+    </row>
+    <row r="99" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="90">
         <v>1</v>
       </c>
-      <c r="B99" s="77" t="s">
+      <c r="B99" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="89"/>
-      <c r="D99" s="78"/>
-      <c r="E99" s="91" t="s">
+      <c r="C99" s="85"/>
+      <c r="D99" s="86"/>
+      <c r="E99" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="91"/>
+      <c r="F99" s="82"/>
       <c r="G99" s="93"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
@@ -6625,14 +6905,16 @@
       <c r="U99" s="64"/>
       <c r="V99" s="64"/>
       <c r="W99" s="64"/>
-    </row>
-    <row r="100" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="74"/>
-      <c r="B100" s="79"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="80"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
+      <c r="X99" s="64"/>
+      <c r="Y99" s="64"/>
+    </row>
+    <row r="100" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="91"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="94"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
@@ -6653,21 +6935,23 @@
       <c r="U100" s="63"/>
       <c r="V100" s="63"/>
       <c r="W100" s="63"/>
-    </row>
-    <row r="101" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="73"/>
-      <c r="B101" s="75" t="s">
+      <c r="X100" s="63"/>
+      <c r="Y100" s="63"/>
+    </row>
+    <row r="101" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="90"/>
+      <c r="B101" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="77" t="s">
+      <c r="C101" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="78"/>
-      <c r="E101" s="81" t="s">
+      <c r="D101" s="86"/>
+      <c r="E101" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="81"/>
-      <c r="G101" s="83"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="80"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6695,15 +6979,17 @@
       <c r="U101" s="64"/>
       <c r="V101" s="64"/>
       <c r="W101" s="64"/>
-    </row>
-    <row r="102" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="74"/>
-      <c r="B102" s="76"/>
-      <c r="C102" s="79"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="76"/>
+      <c r="X101" s="64"/>
+      <c r="Y101" s="64"/>
+    </row>
+    <row r="102" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="91"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="81"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6726,21 +7012,26 @@
       <c r="U102" s="63"/>
       <c r="V102" s="63"/>
       <c r="W102" s="63"/>
-    </row>
-    <row r="103" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="73"/>
-      <c r="B103" s="75" t="s">
+      <c r="X102" s="143">
+        <f>1*6</f>
+        <v>6</v>
+      </c>
+      <c r="Y102" s="63"/>
+    </row>
+    <row r="103" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="90"/>
+      <c r="B103" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="77" t="s">
+      <c r="C103" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="78"/>
-      <c r="E103" s="81" t="s">
+      <c r="D103" s="86"/>
+      <c r="E103" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="81"/>
-      <c r="G103" s="83"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="80"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6768,15 +7059,17 @@
       <c r="U103" s="64"/>
       <c r="V103" s="64"/>
       <c r="W103" s="64"/>
-    </row>
-    <row r="104" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="74"/>
-      <c r="B104" s="76"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="76"/>
+      <c r="X103" s="64"/>
+      <c r="Y103" s="64"/>
+    </row>
+    <row r="104" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="91"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="81"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6799,20 +7092,22 @@
       <c r="U104" s="63"/>
       <c r="V104" s="63"/>
       <c r="W104" s="63"/>
-    </row>
-    <row r="105" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="73">
+      <c r="X104" s="63"/>
+      <c r="Y104" s="63"/>
+    </row>
+    <row r="105" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="90">
         <v>2</v>
       </c>
-      <c r="B105" s="77" t="s">
+      <c r="B105" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="89"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="91" t="s">
+      <c r="C105" s="85"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="91"/>
+      <c r="F105" s="82"/>
       <c r="G105" s="93"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
@@ -6833,14 +7128,16 @@
       <c r="U105" s="64"/>
       <c r="V105" s="64"/>
       <c r="W105" s="64"/>
-    </row>
-    <row r="106" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="74"/>
-      <c r="B106" s="79"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="92"/>
-      <c r="F106" s="92"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="64"/>
+    </row>
+    <row r="106" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="91"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
       <c r="G106" s="94"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
@@ -6861,21 +7158,23 @@
       <c r="U106" s="63"/>
       <c r="V106" s="63"/>
       <c r="W106" s="63"/>
-    </row>
-    <row r="107" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="73"/>
-      <c r="B107" s="75" t="s">
+      <c r="X106" s="63"/>
+      <c r="Y106" s="63"/>
+    </row>
+    <row r="107" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="90"/>
+      <c r="B107" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="77" t="s">
+      <c r="C107" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="78"/>
-      <c r="E107" s="81" t="s">
+      <c r="D107" s="86"/>
+      <c r="E107" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="81"/>
-      <c r="G107" s="83"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="80"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6903,15 +7202,17 @@
       <c r="U107" s="64"/>
       <c r="V107" s="64"/>
       <c r="W107" s="64"/>
-    </row>
-    <row r="108" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="74"/>
-      <c r="B108" s="76"/>
-      <c r="C108" s="79"/>
-      <c r="D108" s="80"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="76"/>
+      <c r="X107" s="64"/>
+      <c r="Y107" s="64"/>
+    </row>
+    <row r="108" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="91"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="81"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6934,21 +7235,23 @@
       <c r="U108" s="63"/>
       <c r="V108" s="63"/>
       <c r="W108" s="63"/>
-    </row>
-    <row r="109" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="73"/>
-      <c r="B109" s="75" t="s">
+      <c r="X108" s="63"/>
+      <c r="Y108" s="63"/>
+    </row>
+    <row r="109" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="90"/>
+      <c r="B109" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="77" t="s">
+      <c r="C109" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="78"/>
-      <c r="E109" s="81" t="s">
+      <c r="D109" s="86"/>
+      <c r="E109" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="81"/>
-      <c r="G109" s="83"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="80"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6976,15 +7279,17 @@
       <c r="U109" s="64"/>
       <c r="V109" s="64"/>
       <c r="W109" s="64"/>
-    </row>
-    <row r="110" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="74"/>
-      <c r="B110" s="76"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="76"/>
+      <c r="X109" s="64"/>
+      <c r="Y109" s="64"/>
+    </row>
+    <row r="110" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="91"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="81"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -7007,8 +7312,10 @@
       <c r="U110" s="62"/>
       <c r="V110" s="62"/>
       <c r="W110" s="62"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X110" s="62"/>
+      <c r="Y110" s="62"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
       <c r="N111" s="39"/>
@@ -7023,7 +7330,301 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="315">
+  <mergeCells count="318">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="V3:W3"/>
@@ -7048,361 +7649,78 @@
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34 L77:S79 L81:S82 L80:T80">
-    <cfRule type="expression" dxfId="15" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="32" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:S62 L65:S74">
-    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="25" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L59), L59&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="26" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L59), L59&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">
-    <cfRule type="expression" dxfId="9" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L21), L21&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:S36 L39:S40">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L35), L35&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="14" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L35), L35&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37:S38">
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L37), L37&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:S64">
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L63), L63&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L63), L63&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V53 V55 V80">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(V53), V53&gt;0)</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V53), V53&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X53 X55 X80">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(X53), X53&gt;0)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(V53), V53&gt;0)</formula>
+      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(X53), X53&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
@@ -7612,18 +7930,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7645,18 +7963,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>